--- a/config_5.25/game_module_config.xlsx
+++ b/config_5.25/game_module_config.xlsx
@@ -3279,7 +3279,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3603,7 +3603,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（铁锤）</t>
@@ -3854,10 +3854,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3948,10 +3948,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3971,36 +3978,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -4012,6 +3989,33 @@
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4038,6 +4042,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -4054,39 +4081,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4140,7 +4140,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,25 +4182,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,13 +4224,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,79 +4284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4284,31 +4302,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4333,15 +4333,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4376,17 +4367,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,15 +4381,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4419,6 +4395,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4442,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,34 +4454,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4493,98 +4490,101 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5060,15 +5060,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C342" sqref="C342"/>
+      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5295,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" hidden="1" spans="1:9">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" hidden="1" spans="1:9">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" hidden="1" spans="1:9">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" hidden="1" spans="1:9">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" hidden="1" spans="1:9">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" hidden="1" spans="1:9">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" hidden="1" spans="1:9">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" hidden="1" spans="1:9">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" hidden="1" spans="1:9">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" hidden="1" spans="1:9">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" hidden="1" spans="1:9">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" hidden="1" spans="1:9">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" hidden="1" spans="1:9">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" hidden="1" spans="1:9">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" hidden="1" spans="1:9">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" hidden="1" spans="1:9">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" hidden="1" spans="1:9">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" hidden="1" spans="1:9">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" hidden="1" spans="1:9">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" hidden="1" spans="1:9">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" hidden="1" spans="1:9">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" s="2" customFormat="1" hidden="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" hidden="1" spans="1:9">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" hidden="1" spans="1:9">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" hidden="1" spans="1:9">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" hidden="1" spans="1:9">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" hidden="1" spans="1:9">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" hidden="1" spans="1:9">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" s="3" customFormat="1" hidden="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" s="4" customFormat="1" hidden="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" hidden="1" spans="1:9">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" hidden="1" spans="1:9">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" hidden="1" spans="1:9">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" hidden="1" spans="1:9">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" hidden="1" spans="1:9">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" hidden="1" spans="1:9">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -7243,7 +7243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" hidden="1" spans="1:9">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" hidden="1" spans="1:9">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" hidden="1" spans="1:9">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -7477,7 +7477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" hidden="1" spans="1:9">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -7503,7 +7503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" hidden="1" spans="1:9">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" hidden="1" spans="1:9">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -7555,7 +7555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" hidden="1" spans="1:9">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -7581,7 +7581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" hidden="1" spans="1:9">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" hidden="1" spans="1:9">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" hidden="1" spans="1:9">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" hidden="1" spans="1:9">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" hidden="1" spans="1:9">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" hidden="1" spans="1:9">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" hidden="1" spans="1:9">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" hidden="1" spans="1:9">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -7841,7 +7841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" hidden="1" spans="1:9">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" hidden="1" spans="1:9">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -7893,7 +7893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" hidden="1" spans="1:9">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" hidden="1" spans="1:9">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" hidden="1" spans="1:9">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" hidden="1" spans="1:9">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" hidden="1" spans="1:9">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -8023,7 +8023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" hidden="1" spans="1:9">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" hidden="1" spans="1:9">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" hidden="1" spans="1:9">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -8101,7 +8101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" hidden="1" spans="1:9">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -8127,7 +8127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" hidden="1" spans="1:9">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" hidden="1" spans="1:9">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -8205,7 +8205,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" hidden="1" spans="1:9">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" hidden="1" spans="1:9">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" hidden="1" spans="1:9">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" hidden="1" spans="1:9">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" hidden="1" spans="1:9">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" hidden="1" spans="1:9">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" hidden="1" spans="1:9">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" hidden="1" spans="1:9">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -8439,7 +8439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" hidden="1" spans="1:9">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" hidden="1" spans="1:9">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" hidden="1" spans="1:9">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" hidden="1" spans="1:9">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" hidden="1" spans="1:9">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" hidden="1" spans="1:9">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" hidden="1" spans="1:9">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" hidden="1" spans="1:9">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -8647,7 +8647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" hidden="1" spans="1:9">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" hidden="1" spans="1:9">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" hidden="1" spans="1:9">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" hidden="1" spans="1:9">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -8777,7 +8777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" hidden="1" spans="1:9">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -8829,7 +8829,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" hidden="1" spans="1:9">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" hidden="1" spans="1:9">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" hidden="1" spans="1:9">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" hidden="1" spans="1:9">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" hidden="1" spans="1:9">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" hidden="1" spans="1:9">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" hidden="1" spans="1:9">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -9011,7 +9011,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" hidden="1" spans="1:9">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" hidden="1" spans="1:9">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" hidden="1" spans="1:9">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -9089,7 +9089,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" hidden="1" spans="1:9">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" hidden="1" spans="1:9">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" hidden="1" spans="1:9">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" hidden="1" spans="1:9">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" hidden="1" spans="1:9">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" hidden="1" spans="1:9">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" hidden="1" spans="1:9">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" hidden="1" spans="1:9">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" hidden="1" spans="1:9">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" hidden="1" spans="1:9">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" hidden="1" spans="1:9">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" hidden="1" spans="1:9">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" hidden="1" spans="1:9">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" hidden="1" spans="1:9">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" hidden="1" spans="1:9">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" hidden="1" spans="1:9">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" hidden="1" spans="1:9">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" s="2" customFormat="1" hidden="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9747,7 +9747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" s="2" customFormat="1" hidden="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9771,7 +9771,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" s="2" customFormat="1" hidden="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" hidden="1" spans="1:9">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" hidden="1" spans="1:9">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" hidden="1" spans="1:9">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" hidden="1" spans="1:9">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" hidden="1" spans="1:9">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -9910,7 +9910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" hidden="1" spans="1:9">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -9933,7 +9933,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" hidden="1" spans="1:9">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" hidden="1" spans="1:9">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -9979,7 +9979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" hidden="1" spans="1:9">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" hidden="1" spans="1:9">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" hidden="1" spans="1:9">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" hidden="1" spans="1:9">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" hidden="1" spans="1:9">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" hidden="1" spans="1:9">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" hidden="1" spans="1:9">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" hidden="1" spans="1:9">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" hidden="1" spans="1:9">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" hidden="1" spans="1:9">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -10209,7 +10209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" hidden="1" spans="1:9">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" hidden="1" spans="1:9">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" hidden="1" spans="1:9">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -10356,7 +10356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" hidden="1" spans="1:9">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" hidden="1" spans="1:9">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" hidden="1" spans="1:9">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" hidden="1" spans="1:9">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" hidden="1" spans="1:9">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" hidden="1" spans="1:9">
       <c r="A213" s="13">
         <v>212</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" hidden="1" spans="1:9">
       <c r="A214" s="13">
         <v>213</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" hidden="1" spans="1:9">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" hidden="1" spans="1:9">
       <c r="A216" s="13">
         <v>215</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" hidden="1" spans="1:9">
       <c r="A217" s="13">
         <v>216</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" hidden="1" spans="1:9">
       <c r="A218" s="13">
         <v>217</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" hidden="1" spans="1:9">
       <c r="A219" s="13">
         <v>218</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" hidden="1" spans="1:9">
       <c r="A220" s="13">
         <v>219</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" hidden="1" spans="1:9">
       <c r="A221" s="13">
         <v>220</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" hidden="1" spans="1:9">
       <c r="A222" s="13">
         <v>221</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" hidden="1" spans="1:9">
       <c r="A223" s="13">
         <v>222</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" hidden="1" spans="1:9">
       <c r="A224" s="13">
         <v>223</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" hidden="1" spans="1:9">
       <c r="A225" s="13">
         <v>224</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" hidden="1" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" hidden="1" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" hidden="1" spans="1:9">
       <c r="A236" s="13">
         <v>235</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" hidden="1" spans="1:9">
       <c r="A252" s="13">
         <v>251</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11599,7 +11599,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" hidden="1" spans="1:9">
       <c r="A270" s="13">
         <v>269</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" hidden="1" spans="1:9">
       <c r="A273" s="13">
         <v>272</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" hidden="1" spans="1:9">
       <c r="A274" s="13">
         <v>273</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12061,13 +12061,13 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>799</v>
@@ -12096,7 +12096,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" hidden="1" spans="1:9">
       <c r="A278" s="13">
         <v>277</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" hidden="1" spans="1:9">
       <c r="A279" s="13">
         <v>278</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" hidden="1" spans="1:9">
       <c r="A280" s="13">
         <v>279</v>
       </c>
@@ -12198,7 +12198,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" hidden="1" spans="1:9">
       <c r="A281" s="13">
         <v>280</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" hidden="1" spans="1:9">
       <c r="A282" s="13">
         <v>281</v>
       </c>
@@ -12302,7 +12302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" hidden="1" spans="1:9">
       <c r="A285" s="13">
         <v>284</v>
       </c>
@@ -12588,7 +12588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" hidden="1" spans="1:9">
       <c r="A296" s="13">
         <v>295</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" hidden="1" spans="1:9">
       <c r="A297" s="13">
         <v>296</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" hidden="1" spans="1:9">
       <c r="A298" s="13">
         <v>297</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12744,7 +12744,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" s="5" customFormat="1" hidden="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" s="5" customFormat="1" ht="17.25" hidden="1" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13079,7 +13079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" s="5" customFormat="1" ht="17.25" hidden="1" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13345,7 +13345,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13374,7 +13374,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" s="5" customFormat="1" hidden="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13544,13 +13544,13 @@
         <v>978</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="32" t="s">
         <v>979</v>
@@ -13631,7 +13631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" hidden="1" spans="1:9">
       <c r="A337" s="48">
         <v>336</v>
       </c>
@@ -13657,7 +13657,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" hidden="1" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" hidden="1" spans="1:9">
       <c r="A339" s="13">
         <v>338</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" ht="15.75" hidden="1" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13734,6 +13734,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H340">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="equal" val="1"/>
+      </customFilters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_5.25/game_module_config.xlsx
+++ b/config_5.25/game_module_config.xlsx
@@ -3279,7 +3279,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>话费礼包</t>
+    <t>幸运福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3781,10 +3781,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
-    <t>龙腾礼包</t>
+    <t>act_ty_gifts_style/act_003_hllb</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3854,9 +3854,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3941,6 +3941,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3948,30 +3955,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3997,15 +4004,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4016,6 +4025,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4034,42 +4051,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4081,9 +4067,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4140,19 +4140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,13 +4164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4182,13 +4176,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4200,55 +4194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4266,7 +4224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,19 +4242,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4303,6 +4279,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4338,21 +4338,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4371,7 +4356,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4381,6 +4381,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4396,15 +4405,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4442,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,137 +4454,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5064,11 +5064,11 @@
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C291" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C320" sqref="C320"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12394,13 +12394,13 @@
         <v>838</v>
       </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" s="37" t="s">
         <v>723</v>

--- a/config_5.25/game_module_config.xlsx
+++ b/config_5.25/game_module_config.xlsx
@@ -3606,22 +3606,22 @@
     <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3781,7 +3781,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hllb</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
     <t>话费礼包</t>
@@ -3855,8 +3855,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3941,32 +3941,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3978,14 +3969,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3999,9 +3983,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4012,25 +3999,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4051,9 +4021,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4067,8 +4060,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4083,10 +4085,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4140,7 +4140,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4152,7 +4164,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,7 +4176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,7 +4188,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,121 +4302,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4352,15 +4352,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4379,8 +4370,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4389,7 +4380,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4404,21 +4419,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4442,10 +4442,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,137 +4454,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5068,7 +5068,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_5.25/game_module_config.xlsx
+++ b/config_5.25/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="1005">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3820,13 +3820,16 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
+    <t>（180天领取）5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+  </si>
+  <si>
     <t>5月10日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
-  </si>
-  <si>
-    <t>通用转盘皮肤</t>
   </si>
   <si>
     <t>act_054_byns</t>
@@ -3854,9 +3857,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3941,21 +3944,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3969,7 +3965,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3977,7 +4017,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3991,33 +4031,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4030,7 +4047,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4038,15 +4055,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4060,17 +4077,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4082,11 +4090,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4140,13 +4143,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,67 +4221,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4230,43 +4245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4284,13 +4269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4302,13 +4293,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4338,21 +4341,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4371,7 +4359,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4380,16 +4398,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4409,17 +4418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4442,10 +4445,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4454,137 +4457,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5060,15 +5063,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C300" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C334" sqref="C334"/>
+      <selection pane="bottomRight" activeCell="A338" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5295,7 +5298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:9">
+    <row r="9" spans="1:9">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -5321,7 +5324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:9">
+    <row r="10" spans="1:9">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:9">
+    <row r="11" spans="1:9">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:9">
+    <row r="12" spans="1:9">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:9">
+    <row r="13" spans="1:9">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:9">
+    <row r="26" spans="1:9">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -5815,7 +5818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:9">
+    <row r="29" spans="1:9">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:9">
+    <row r="30" spans="1:9">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:9">
+    <row r="31" spans="1:9">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -5997,7 +6000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:9">
+    <row r="36" spans="1:9">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -6101,7 +6104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:9">
+    <row r="40" spans="1:9">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -6127,7 +6130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:9">
+    <row r="41" spans="1:9">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:9">
+    <row r="42" spans="1:9">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -6179,7 +6182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:9">
+    <row r="43" spans="1:9">
       <c r="A43" s="13">
         <v>42</v>
       </c>
@@ -6257,7 +6260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:9">
+    <row r="46" spans="1:9">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -6309,7 +6312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:9">
+    <row r="48" spans="1:9">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -6413,7 +6416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:9">
+    <row r="52" spans="1:9">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:9">
+    <row r="54" spans="1:9">
       <c r="A54" s="13">
         <v>53</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:9">
+    <row r="56" spans="1:9">
       <c r="A56" s="13">
         <v>55</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:9">
+    <row r="57" spans="1:9">
       <c r="A57" s="13">
         <v>56</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:9">
+    <row r="58" spans="1:9">
       <c r="A58" s="13">
         <v>57</v>
       </c>
@@ -6619,7 +6622,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:9">
+    <row r="61" spans="1:9">
       <c r="A61" s="13">
         <v>60</v>
       </c>
@@ -6697,7 +6700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:9">
+    <row r="63" spans="1:9">
       <c r="A63" s="13">
         <v>62</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:9">
+    <row r="65" spans="1:9">
       <c r="A65" s="13">
         <v>64</v>
       </c>
@@ -6801,7 +6804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:9">
+    <row r="67" spans="1:9">
       <c r="A67" s="13">
         <v>66</v>
       </c>
@@ -6827,7 +6830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:9">
+    <row r="68" spans="1:9">
       <c r="A68" s="13">
         <v>67</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:9">
+    <row r="73" spans="1:9">
       <c r="A73" s="13">
         <v>72</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" hidden="1" spans="1:9">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7035,7 +7038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" hidden="1" spans="1:9">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:9">
+    <row r="77" spans="1:9">
       <c r="A77" s="13">
         <v>76</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:9">
+    <row r="79" spans="1:9">
       <c r="A79" s="13">
         <v>78</v>
       </c>
@@ -7139,7 +7142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:9">
+    <row r="80" spans="1:9">
       <c r="A80" s="13">
         <v>79</v>
       </c>
@@ -7165,7 +7168,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:9">
+    <row r="81" spans="1:9">
       <c r="A81" s="13">
         <v>80</v>
       </c>
@@ -7191,7 +7194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:9">
+    <row r="82" spans="1:9">
       <c r="A82" s="13">
         <v>81</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:9">
+    <row r="83" spans="1:9">
       <c r="A83" s="13">
         <v>82</v>
       </c>
@@ -7243,7 +7246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:9">
+    <row r="84" spans="1:9">
       <c r="A84" s="13">
         <v>83</v>
       </c>
@@ -7373,7 +7376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:9">
+    <row r="89" spans="1:9">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:9">
+    <row r="91" spans="1:9">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -7477,7 +7480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:9">
+    <row r="93" spans="1:9">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -7503,7 +7506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:9">
+    <row r="94" spans="1:9">
       <c r="A94" s="13">
         <v>93</v>
       </c>
@@ -7529,7 +7532,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:9">
+    <row r="95" spans="1:9">
       <c r="A95" s="13">
         <v>94</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:9">
+    <row r="96" spans="1:9">
       <c r="A96" s="13">
         <v>95</v>
       </c>
@@ -7581,7 +7584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" hidden="1" spans="1:9">
+    <row r="97" spans="1:9">
       <c r="A97" s="13">
         <v>96</v>
       </c>
@@ -7607,7 +7610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" hidden="1" spans="1:9">
+    <row r="98" spans="1:9">
       <c r="A98" s="13">
         <v>97</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" hidden="1" spans="1:9">
+    <row r="99" spans="1:9">
       <c r="A99" s="13">
         <v>98</v>
       </c>
@@ -7685,7 +7688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" hidden="1" spans="1:9">
+    <row r="101" spans="1:9">
       <c r="A101" s="13">
         <v>100</v>
       </c>
@@ -7711,7 +7714,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" hidden="1" spans="1:9">
+    <row r="102" spans="1:9">
       <c r="A102" s="13">
         <v>101</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" hidden="1" spans="1:9">
+    <row r="104" spans="1:9">
       <c r="A104" s="13">
         <v>103</v>
       </c>
@@ -7789,7 +7792,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" hidden="1" spans="1:9">
+    <row r="105" spans="1:9">
       <c r="A105" s="13">
         <v>104</v>
       </c>
@@ -7815,7 +7818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" hidden="1" spans="1:9">
+    <row r="106" spans="1:9">
       <c r="A106" s="13">
         <v>105</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" hidden="1" spans="1:9">
+    <row r="107" spans="1:9">
       <c r="A107" s="13">
         <v>106</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" hidden="1" spans="1:9">
+    <row r="108" spans="1:9">
       <c r="A108" s="13">
         <v>107</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" hidden="1" spans="1:9">
+    <row r="109" spans="1:9">
       <c r="A109" s="13">
         <v>108</v>
       </c>
@@ -7919,7 +7922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" hidden="1" spans="1:9">
+    <row r="110" spans="1:9">
       <c r="A110" s="13">
         <v>109</v>
       </c>
@@ -7945,7 +7948,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" hidden="1" spans="1:9">
+    <row r="111" spans="1:9">
       <c r="A111" s="13">
         <v>110</v>
       </c>
@@ -7971,7 +7974,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" hidden="1" spans="1:9">
+    <row r="112" spans="1:9">
       <c r="A112" s="13">
         <v>111</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" hidden="1" spans="1:9">
+    <row r="113" spans="1:9">
       <c r="A113" s="13">
         <v>112</v>
       </c>
@@ -8023,7 +8026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" hidden="1" spans="1:9">
+    <row r="114" spans="1:9">
       <c r="A114" s="13">
         <v>113</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" hidden="1" spans="1:9">
+    <row r="115" spans="1:9">
       <c r="A115" s="13">
         <v>114</v>
       </c>
@@ -8075,7 +8078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" hidden="1" spans="1:9">
+    <row r="116" spans="1:9">
       <c r="A116" s="13">
         <v>115</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" hidden="1" spans="1:9">
+    <row r="117" spans="1:9">
       <c r="A117" s="13">
         <v>116</v>
       </c>
@@ -8127,7 +8130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" hidden="1" spans="1:9">
+    <row r="118" spans="1:9">
       <c r="A118" s="13">
         <v>117</v>
       </c>
@@ -8179,7 +8182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="120" hidden="1" spans="1:9">
+    <row r="120" spans="1:9">
       <c r="A120" s="13">
         <v>119</v>
       </c>
@@ -8205,7 +8208,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" hidden="1" spans="1:9">
+    <row r="121" spans="1:9">
       <c r="A121" s="13">
         <v>120</v>
       </c>
@@ -8231,7 +8234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" hidden="1" spans="1:9">
+    <row r="122" spans="1:9">
       <c r="A122" s="13">
         <v>121</v>
       </c>
@@ -8257,7 +8260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" hidden="1" spans="1:9">
+    <row r="123" spans="1:9">
       <c r="A123" s="13">
         <v>122</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" hidden="1" spans="1:9">
+    <row r="124" spans="1:9">
       <c r="A124" s="13">
         <v>123</v>
       </c>
@@ -8309,7 +8312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" hidden="1" spans="1:9">
+    <row r="125" spans="1:9">
       <c r="A125" s="13">
         <v>124</v>
       </c>
@@ -8361,7 +8364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" hidden="1" spans="1:9">
+    <row r="127" spans="1:9">
       <c r="A127" s="13">
         <v>126</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" hidden="1" spans="1:9">
+    <row r="128" spans="1:9">
       <c r="A128" s="13">
         <v>127</v>
       </c>
@@ -8413,7 +8416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" hidden="1" spans="1:9">
+    <row r="129" spans="1:9">
       <c r="A129" s="13">
         <v>128</v>
       </c>
@@ -8439,7 +8442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" hidden="1" spans="1:9">
+    <row r="130" spans="1:9">
       <c r="A130" s="13">
         <v>129</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" hidden="1" spans="1:9">
+    <row r="131" spans="1:9">
       <c r="A131" s="13">
         <v>130</v>
       </c>
@@ -8491,7 +8494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" hidden="1" spans="1:9">
+    <row r="132" spans="1:9">
       <c r="A132" s="13">
         <v>131</v>
       </c>
@@ -8517,7 +8520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" hidden="1" spans="1:9">
+    <row r="133" spans="1:9">
       <c r="A133" s="13">
         <v>132</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" hidden="1" spans="1:9">
+    <row r="134" spans="1:9">
       <c r="A134" s="13">
         <v>133</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" hidden="1" spans="1:9">
+    <row r="135" spans="1:9">
       <c r="A135" s="13">
         <v>134</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" hidden="1" spans="1:9">
+    <row r="136" spans="1:9">
       <c r="A136" s="13">
         <v>135</v>
       </c>
@@ -8621,7 +8624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" hidden="1" spans="1:9">
+    <row r="137" spans="1:9">
       <c r="A137" s="13">
         <v>136</v>
       </c>
@@ -8647,7 +8650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" hidden="1" spans="1:9">
+    <row r="138" spans="1:9">
       <c r="A138" s="13">
         <v>137</v>
       </c>
@@ -8673,7 +8676,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" hidden="1" spans="1:9">
+    <row r="139" spans="1:9">
       <c r="A139" s="13">
         <v>138</v>
       </c>
@@ -8699,7 +8702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" hidden="1" spans="1:9">
+    <row r="140" spans="1:9">
       <c r="A140" s="13">
         <v>139</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" hidden="1" spans="1:9">
+    <row r="141" spans="1:9">
       <c r="A141" s="13">
         <v>140</v>
       </c>
@@ -8777,7 +8780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" hidden="1" spans="1:9">
+    <row r="143" spans="1:9">
       <c r="A143" s="13">
         <v>142</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" hidden="1" spans="1:9">
+    <row r="145" spans="1:9">
       <c r="A145" s="13">
         <v>144</v>
       </c>
@@ -8855,7 +8858,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" hidden="1" spans="1:9">
+    <row r="146" spans="1:9">
       <c r="A146" s="13">
         <v>145</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="147" hidden="1" spans="1:9">
+    <row r="147" spans="1:9">
       <c r="A147" s="13">
         <v>146</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" hidden="1" spans="1:9">
+    <row r="148" spans="1:9">
       <c r="A148" s="13">
         <v>147</v>
       </c>
@@ -8933,7 +8936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" hidden="1" spans="1:9">
+    <row r="149" spans="1:9">
       <c r="A149" s="13">
         <v>148</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" hidden="1" spans="1:9">
+    <row r="150" spans="1:9">
       <c r="A150" s="13">
         <v>149</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" hidden="1" spans="1:9">
+    <row r="151" spans="1:9">
       <c r="A151" s="13">
         <v>150</v>
       </c>
@@ -9011,7 +9014,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="152" hidden="1" spans="1:9">
+    <row r="152" spans="1:9">
       <c r="A152" s="13">
         <v>151</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" hidden="1" spans="1:9">
+    <row r="153" spans="1:9">
       <c r="A153" s="13">
         <v>152</v>
       </c>
@@ -9063,7 +9066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" hidden="1" spans="1:9">
+    <row r="154" spans="1:9">
       <c r="A154" s="13">
         <v>153</v>
       </c>
@@ -9089,7 +9092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" hidden="1" spans="1:9">
+    <row r="155" spans="1:9">
       <c r="A155" s="13">
         <v>154</v>
       </c>
@@ -9115,7 +9118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" hidden="1" spans="1:9">
+    <row r="156" spans="1:9">
       <c r="A156" s="13">
         <v>155</v>
       </c>
@@ -9141,7 +9144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" hidden="1" spans="1:9">
+    <row r="157" spans="1:9">
       <c r="A157" s="13">
         <v>156</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" hidden="1" spans="1:9">
+    <row r="158" spans="1:9">
       <c r="A158" s="13">
         <v>157</v>
       </c>
@@ -9193,7 +9196,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" hidden="1" spans="1:9">
+    <row r="159" spans="1:9">
       <c r="A159" s="13">
         <v>158</v>
       </c>
@@ -9219,7 +9222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" hidden="1" spans="1:9">
+    <row r="160" spans="1:9">
       <c r="A160" s="13">
         <v>159</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" hidden="1" spans="1:9">
+    <row r="161" spans="1:9">
       <c r="A161" s="13">
         <v>160</v>
       </c>
@@ -9297,7 +9300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" hidden="1" spans="1:9">
+    <row r="163" spans="1:9">
       <c r="A163" s="13">
         <v>162</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" hidden="1" spans="1:9">
+    <row r="165" spans="1:9">
       <c r="A165" s="13">
         <v>164</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" hidden="1" spans="1:9">
+    <row r="167" spans="1:9">
       <c r="A167" s="13">
         <v>166</v>
       </c>
@@ -9427,7 +9430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" hidden="1" spans="1:9">
+    <row r="168" spans="1:9">
       <c r="A168" s="13">
         <v>167</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" hidden="1" spans="1:9">
+    <row r="169" spans="1:9">
       <c r="A169" s="13">
         <v>168</v>
       </c>
@@ -9549,7 +9552,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" hidden="1" spans="1:9">
+    <row r="173" spans="1:9">
       <c r="A173" s="13">
         <v>172</v>
       </c>
@@ -9575,7 +9578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" hidden="1" spans="1:9">
+    <row r="174" spans="1:9">
       <c r="A174" s="13">
         <v>173</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" hidden="1" spans="1:9">
+    <row r="175" spans="1:9">
       <c r="A175" s="13">
         <v>174</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" hidden="1" spans="1:9">
+    <row r="176" spans="1:9">
       <c r="A176" s="13">
         <v>175</v>
       </c>
@@ -9699,7 +9702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" hidden="1" spans="1:9">
+    <row r="179" spans="1:9">
       <c r="A179" s="13">
         <v>178</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9747,7 +9750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9771,7 +9774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" hidden="1" spans="1:9">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -9795,7 +9798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" hidden="1" spans="1:9">
+    <row r="183" spans="1:9">
       <c r="A183" s="13">
         <v>182</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" hidden="1" spans="1:9">
+    <row r="184" spans="1:9">
       <c r="A184" s="13">
         <v>183</v>
       </c>
@@ -9841,7 +9844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" hidden="1" spans="1:9">
+    <row r="185" spans="1:9">
       <c r="A185" s="13">
         <v>184</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" hidden="1" spans="1:9">
+    <row r="186" spans="1:9">
       <c r="A186" s="13">
         <v>185</v>
       </c>
@@ -9887,7 +9890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" hidden="1" spans="1:9">
+    <row r="187" spans="1:9">
       <c r="A187" s="13">
         <v>186</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" hidden="1" spans="1:9">
+    <row r="188" spans="1:9">
       <c r="A188" s="13">
         <v>187</v>
       </c>
@@ -9933,7 +9936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" hidden="1" spans="1:9">
+    <row r="189" spans="1:9">
       <c r="A189" s="13">
         <v>188</v>
       </c>
@@ -9956,7 +9959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" hidden="1" spans="1:9">
+    <row r="190" spans="1:9">
       <c r="A190" s="13">
         <v>189</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" hidden="1" spans="1:9">
+    <row r="191" spans="1:9">
       <c r="A191" s="13">
         <v>190</v>
       </c>
@@ -10002,7 +10005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" hidden="1" spans="1:9">
+    <row r="192" spans="1:9">
       <c r="A192" s="13">
         <v>191</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" hidden="1" spans="1:9">
+    <row r="193" spans="1:9">
       <c r="A193" s="13">
         <v>192</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" hidden="1" spans="1:9">
+    <row r="194" spans="1:9">
       <c r="A194" s="13">
         <v>193</v>
       </c>
@@ -10071,7 +10074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" hidden="1" spans="1:9">
+    <row r="195" spans="1:9">
       <c r="A195" s="13">
         <v>194</v>
       </c>
@@ -10094,7 +10097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" hidden="1" spans="1:9">
+    <row r="196" spans="1:9">
       <c r="A196" s="13">
         <v>195</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" hidden="1" spans="1:9">
+    <row r="197" spans="1:9">
       <c r="A197" s="13">
         <v>196</v>
       </c>
@@ -10140,7 +10143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" hidden="1" spans="1:9">
+    <row r="198" spans="1:9">
       <c r="A198" s="13">
         <v>197</v>
       </c>
@@ -10163,7 +10166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" hidden="1" spans="1:9">
+    <row r="199" spans="1:9">
       <c r="A199" s="13">
         <v>198</v>
       </c>
@@ -10186,7 +10189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" hidden="1" spans="1:9">
+    <row r="200" spans="1:9">
       <c r="A200" s="13">
         <v>199</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" hidden="1" spans="1:9">
+    <row r="201" spans="1:9">
       <c r="A201" s="13">
         <v>200</v>
       </c>
@@ -10232,7 +10235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" hidden="1" spans="1:9">
+    <row r="202" spans="1:9">
       <c r="A202" s="13">
         <v>201</v>
       </c>
@@ -10255,7 +10258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" hidden="1" spans="1:9">
+    <row r="203" spans="1:9">
       <c r="A203" s="13">
         <v>202</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" hidden="1" spans="1:9">
+    <row r="207" spans="1:9">
       <c r="A207" s="13">
         <v>206</v>
       </c>
@@ -10379,7 +10382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" hidden="1" spans="1:9">
+    <row r="208" spans="1:9">
       <c r="A208" s="13">
         <v>207</v>
       </c>
@@ -10402,7 +10405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" hidden="1" spans="1:9">
+    <row r="209" spans="1:9">
       <c r="A209" s="13">
         <v>208</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" hidden="1" spans="1:9">
+    <row r="210" spans="1:9">
       <c r="A210" s="13">
         <v>209</v>
       </c>
@@ -10471,7 +10474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" hidden="1" spans="1:9">
+    <row r="212" spans="1:9">
       <c r="A212" s="13">
         <v>211</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" hidden="1" spans="1:9">
+    <row r="213" spans="1:9">
       <c r="A213" s="13">
         <v>212</v>
       </c>
@@ -10517,7 +10520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" hidden="1" spans="1:9">
+    <row r="214" spans="1:9">
       <c r="A214" s="13">
         <v>213</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" hidden="1" spans="1:9">
+    <row r="215" spans="1:9">
       <c r="A215" s="13">
         <v>214</v>
       </c>
@@ -10563,7 +10566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" hidden="1" spans="1:9">
+    <row r="216" spans="1:9">
       <c r="A216" s="13">
         <v>215</v>
       </c>
@@ -10586,7 +10589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" hidden="1" spans="1:9">
+    <row r="217" spans="1:9">
       <c r="A217" s="13">
         <v>216</v>
       </c>
@@ -10609,7 +10612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" hidden="1" spans="1:9">
+    <row r="218" spans="1:9">
       <c r="A218" s="13">
         <v>217</v>
       </c>
@@ -10632,7 +10635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" hidden="1" spans="1:9">
+    <row r="219" spans="1:9">
       <c r="A219" s="13">
         <v>218</v>
       </c>
@@ -10655,7 +10658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" hidden="1" spans="1:9">
+    <row r="220" spans="1:9">
       <c r="A220" s="13">
         <v>219</v>
       </c>
@@ -10678,7 +10681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" hidden="1" spans="1:9">
+    <row r="221" spans="1:9">
       <c r="A221" s="13">
         <v>220</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" hidden="1" spans="1:9">
+    <row r="222" spans="1:9">
       <c r="A222" s="13">
         <v>221</v>
       </c>
@@ -10724,7 +10727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" hidden="1" spans="1:9">
+    <row r="223" spans="1:9">
       <c r="A223" s="13">
         <v>222</v>
       </c>
@@ -10747,7 +10750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" hidden="1" spans="1:9">
+    <row r="224" spans="1:9">
       <c r="A224" s="13">
         <v>223</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" hidden="1" spans="1:9">
+    <row r="225" spans="1:9">
       <c r="A225" s="13">
         <v>224</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" hidden="1" spans="1:7">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10977,7 +10980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" hidden="1" spans="1:7">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11026,7 +11029,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="236" hidden="1" spans="1:9">
+    <row r="236" spans="1:9">
       <c r="A236" s="13">
         <v>235</v>
       </c>
@@ -11442,7 +11445,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="252" hidden="1" spans="1:9">
+    <row r="252" spans="1:9">
       <c r="A252" s="13">
         <v>251</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11573,7 +11576,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11599,7 +11602,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11651,7 +11654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11729,7 +11732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11755,7 +11758,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11781,7 +11784,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="270" hidden="1" spans="1:9">
+    <row r="270" spans="1:9">
       <c r="A270" s="13">
         <v>269</v>
       </c>
@@ -11993,7 +11996,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="273" hidden="1" spans="1:9">
+    <row r="273" spans="1:9">
       <c r="A273" s="13">
         <v>272</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="274" hidden="1" spans="1:9">
+    <row r="274" spans="1:9">
       <c r="A274" s="13">
         <v>273</v>
       </c>
@@ -12047,7 +12050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12096,7 +12099,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" hidden="1" customHeight="1" spans="1:9">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12123,7 +12126,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="278" hidden="1" spans="1:9">
+    <row r="278" spans="1:9">
       <c r="A278" s="13">
         <v>277</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="279" hidden="1" spans="1:9">
+    <row r="279" spans="1:9">
       <c r="A279" s="13">
         <v>278</v>
       </c>
@@ -12172,7 +12175,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="280" hidden="1" spans="1:9">
+    <row r="280" spans="1:9">
       <c r="A280" s="13">
         <v>279</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="281" hidden="1" spans="1:9">
+    <row r="281" spans="1:9">
       <c r="A281" s="13">
         <v>280</v>
       </c>
@@ -12224,7 +12227,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="282" hidden="1" spans="1:9">
+    <row r="282" spans="1:9">
       <c r="A282" s="13">
         <v>281</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" hidden="1" spans="1:9">
+    <row r="285" spans="1:9">
       <c r="A285" s="13">
         <v>284</v>
       </c>
@@ -12588,7 +12591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="296" hidden="1" spans="1:9">
+    <row r="296" spans="1:9">
       <c r="A296" s="13">
         <v>295</v>
       </c>
@@ -12614,7 +12617,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="297" hidden="1" spans="1:9">
+    <row r="297" spans="1:9">
       <c r="A297" s="13">
         <v>296</v>
       </c>
@@ -12640,7 +12643,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="298" hidden="1" spans="1:9">
+    <row r="298" spans="1:9">
       <c r="A298" s="13">
         <v>297</v>
       </c>
@@ -12692,7 +12695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12718,7 +12721,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12744,7 +12747,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12978,7 +12981,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13004,7 +13007,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" hidden="1" spans="1:7">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13027,7 +13030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" hidden="1" spans="1:9">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13079,7 +13082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13105,7 +13108,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" hidden="1" spans="1:9">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13296,7 +13299,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13322,7 +13325,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13345,7 +13348,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13400,7 +13403,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" hidden="1" spans="1:9">
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13631,7 +13634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" hidden="1" spans="1:9">
+    <row r="337" spans="1:9">
       <c r="A337" s="48">
         <v>336</v>
       </c>
@@ -13657,7 +13660,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="338" hidden="1" spans="1:9">
+    <row r="338" spans="1:9">
       <c r="A338" s="13">
         <v>337</v>
       </c>
@@ -13671,19 +13674,19 @@
         <v>995</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="339" hidden="1" spans="1:9">
+    <row r="339" spans="1:9">
       <c r="A339" s="13">
         <v>338</v>
       </c>
@@ -13703,21 +13706,21 @@
         <v>0</v>
       </c>
       <c r="I339" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="340" ht="15.75" hidden="1" spans="1:9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="49" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C340" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D340" s="49" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E340" s="5">
         <v>0</v>
@@ -13729,16 +13732,11 @@
         <v>0</v>
       </c>
       <c r="I340" s="32" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H340">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="1"/>
-      </customFilters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13764,7 +13762,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>
